--- a/biology/Botanique/Athrotaxis/Athrotaxis.xlsx
+++ b/biology/Botanique/Athrotaxis/Athrotaxis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Athrotaxis est un genre de deux ou trois -suivant les classifications- espèces de gymnospermes de la famille des Cupressaceae. Le genre est endémique dans l'ouest de la Tasmanie où on le trouve en altitude dans les forêts tempérées humides.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbres à végétation persistante atteignant 10 à 30 mètres de haut (rarement 40 mètres) et 1 à 1,5 mètre de diamètre. Les feuilles sont des écailles de 3 à 14 millimètres de long disposées en spirales. Les cones, en boules ou ovoïdes, mesurent 1 à 3 cm de diamètre et portent 15 à 35 écailles qui ont chacune 3 à 6 graines. Ils sont matures 7 à 9 mois après la fécondation. Les fleurs mâles sont plus petites et libèrent leur pollen au début du printemps.
 </t>
@@ -542,7 +556,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On distingue, a priori, trois espèces d'Athrotaxis mais pour certains la troisième : Athrotaxis laxifolia est un hybride des deux premières. Ce sont :
 Athrotaxis cupressoides (D.Don). Les feuilles sont petites (3-5 mm), plaquées sur la tige. Les cones sont petits (1-1,5 cm), les écailles ont une petite bractée couvrant seulement le centre de l'écaille.
@@ -575,7 +591,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois, odorant et de bonne conservation a été largement exploité en Tasmanie mais il est devenu trop rare pour être encore utilisé. 
 Ils forment de beaux arbres ornementaux que l'on trouve dans les arboretums et les jardins botaniques. Ils sont cultivés avec succès loin de leur pays d'origine pourvu que le climat s'y prête: Îles Britanniques, cote Pacifique du Nord de l'Amérique, Nouvelle-Zélande.
